--- a/2024 Project v2/other/Firm_Reality_check.xlsx
+++ b/2024 Project v2/other/Firm_Reality_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kostas\Documents\GitHub\Diplomatiki_kwpap_step_1\2024 Project v2\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81244E01-F162-4D62-8160-0429BD7D59CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0750809-83B9-424C-9E8E-18FFA93DFA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="13176" xr2:uid="{80366F78-A857-4136-905A-A5E91B2B5124}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{80366F78-A857-4136-905A-A5E91B2B5124}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,9 +127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +167,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,7 +426,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +540,7 @@
         <v>756.19995815013499</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">100-0.1*F3</f>
+        <f t="shared" ref="G3:G4" si="1">100-0.1*F3</f>
         <v>24.380004184986504</v>
       </c>
       <c r="H3">
